--- a/data/municipios_asignacion.xlsx
+++ b/data/municipios_asignacion.xlsx
@@ -32321,7 +32321,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -32330,10 +32330,10 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -32414,7 +32414,7 @@
         <v>0</v>
       </c>
       <c r="BL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM24">
         <v>0</v>
@@ -32438,7 +32438,7 @@
         <v>0</v>
       </c>
       <c r="BT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU24">
         <v>0</v>
@@ -32468,7 +32468,7 @@
         <v>0</v>
       </c>
       <c r="CD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE24">
         <v>0</v>
@@ -32510,10 +32510,10 @@
         <v>0</v>
       </c>
       <c r="CR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT24">
         <v>0</v>
@@ -32630,7 +32630,7 @@
         <v>0</v>
       </c>
       <c r="EF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG24">
         <v>0</v>
@@ -32639,10 +32639,10 @@
         <v>0</v>
       </c>
       <c r="EI24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK24">
         <v>0</v>
@@ -32678,7 +32678,7 @@
         <v>0</v>
       </c>
       <c r="EV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW24">
         <v>0</v>
@@ -32693,7 +32693,7 @@
         <v>0</v>
       </c>
       <c r="FA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FB24">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>0</v>
       </c>
       <c r="GG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH24">
         <v>0</v>
@@ -32807,16 +32807,16 @@
         <v>0</v>
       </c>
       <c r="GM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GN24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GQ24">
         <v>0</v>
@@ -32828,19 +32828,19 @@
         <v>0</v>
       </c>
       <c r="GT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GU24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW24">
         <v>0</v>
       </c>
       <c r="GX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GY24">
         <v>0</v>
@@ -32849,19 +32849,19 @@
         <v>0</v>
       </c>
       <c r="HA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HC24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF24">
         <v>0</v>
@@ -32870,13 +32870,13 @@
         <v>0</v>
       </c>
       <c r="HH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HI24">
         <v>0</v>
       </c>
       <c r="HJ24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HK24">
         <v>0</v>
@@ -32891,13 +32891,13 @@
         <v>0</v>
       </c>
       <c r="HO24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR24">
         <v>0</v>
@@ -32921,13 +32921,13 @@
         <v>0</v>
       </c>
       <c r="HY24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HZ24">
         <v>0</v>
       </c>
       <c r="IA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB24">
         <v>0</v>
@@ -32960,7 +32960,7 @@
         <v>0</v>
       </c>
       <c r="IL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM24">
         <v>0</v>
@@ -32972,10 +32972,10 @@
         <v>0</v>
       </c>
       <c r="IP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IR24">
         <v>0</v>
@@ -32984,7 +32984,7 @@
         <v>0</v>
       </c>
       <c r="IT24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU24">
         <v>0</v>
@@ -32996,7 +32996,7 @@
         <v>0</v>
       </c>
       <c r="IX24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IY24">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>0</v>
       </c>
       <c r="JG24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH24">
         <v>0</v>
@@ -33086,7 +33086,7 @@
         <v>0</v>
       </c>
       <c r="KB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KC24">
         <v>0</v>
@@ -33170,7 +33170,7 @@
         <v>0</v>
       </c>
       <c r="LD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE24">
         <v>0</v>
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="LS24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LT24">
         <v>0</v>
@@ -33227,13 +33227,13 @@
         <v>0</v>
       </c>
       <c r="LW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LX24">
         <v>0</v>
       </c>
       <c r="LY24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LZ24">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>0</v>
       </c>
       <c r="MG24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MH24">
         <v>0</v>
@@ -33266,19 +33266,19 @@
         <v>0</v>
       </c>
       <c r="MJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK24">
         <v>0</v>
       </c>
       <c r="ML24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MM24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MN24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MO24">
         <v>0</v>
@@ -33287,103 +33287,103 @@
         <v>0</v>
       </c>
       <c r="MQ24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MR24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="MS24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MT24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MU24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MW24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MX24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MY24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="MZ24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="NA24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="NB24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="NC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND24">
         <v>0</v>
       </c>
       <c r="NE24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="NF24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="NG24">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="NH24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NI24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="NJ24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NK24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NL24">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="NM24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="NN24">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="NO24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="NP24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="NQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NR24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NS24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="NT24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="NU24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="NV24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NW24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="NX24">
         <v>0</v>
@@ -33392,19 +33392,19 @@
         <v>0</v>
       </c>
       <c r="NZ24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OA24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OB24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OC24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OD24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OE24">
         <v>0</v>
@@ -33416,16 +33416,16 @@
         <v>0</v>
       </c>
       <c r="OH24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OI24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OJ24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OK24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OL24">
         <v>0</v>
@@ -33434,16 +33434,16 @@
         <v>0</v>
       </c>
       <c r="ON24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OO24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OR24">
         <v>0</v>
@@ -33455,19 +33455,19 @@
         <v>0</v>
       </c>
       <c r="OU24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OV24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OW24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OX24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OY24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="OZ24">
         <v>0</v>
@@ -33476,19 +33476,19 @@
         <v>0</v>
       </c>
       <c r="PB24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="PC24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PD24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PE24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PF24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PG24">
         <v>0</v>
@@ -33497,19 +33497,19 @@
         <v>0</v>
       </c>
       <c r="PI24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="PJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PK24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="PL24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PM24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PN24">
         <v>0</v>
@@ -33518,19 +33518,19 @@
         <v>0</v>
       </c>
       <c r="PP24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PQ24">
         <v>0</v>
       </c>
       <c r="PR24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PS24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PU24">
         <v>0</v>
@@ -42909,19 +42909,19 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD32">
         <v>0</v>
       </c>
       <c r="BE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32">
         <v>0</v>
@@ -43068,7 +43068,7 @@
         <v>0</v>
       </c>
       <c r="DB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC32">
         <v>0</v>
@@ -43314,7 +43314,7 @@
         <v>0</v>
       </c>
       <c r="GF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG32">
         <v>0</v>
@@ -43326,7 +43326,7 @@
         <v>0</v>
       </c>
       <c r="GJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK32">
         <v>0</v>
@@ -43344,7 +43344,7 @@
         <v>0</v>
       </c>
       <c r="GP32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ32">
         <v>0</v>
@@ -43356,28 +43356,28 @@
         <v>0</v>
       </c>
       <c r="GT32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GU32">
         <v>0</v>
       </c>
       <c r="GV32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GW32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GY32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GZ32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB32">
         <v>0</v>
@@ -43392,10 +43392,10 @@
         <v>0</v>
       </c>
       <c r="HF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH32">
         <v>0</v>
@@ -43407,7 +43407,7 @@
         <v>0</v>
       </c>
       <c r="HK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HL32">
         <v>0</v>
@@ -43425,7 +43425,7 @@
         <v>0</v>
       </c>
       <c r="HQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR32">
         <v>0</v>
@@ -43464,13 +43464,13 @@
         <v>0</v>
       </c>
       <c r="ID32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG32">
         <v>0</v>
@@ -43638,7 +43638,7 @@
         <v>0</v>
       </c>
       <c r="KJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK32">
         <v>0</v>
@@ -43677,7 +43677,7 @@
         <v>0</v>
       </c>
       <c r="KW32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KX32">
         <v>0</v>
@@ -43692,7 +43692,7 @@
         <v>0</v>
       </c>
       <c r="LB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC32">
         <v>0</v>
@@ -43716,10 +43716,10 @@
         <v>0</v>
       </c>
       <c r="LJ32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LL32">
         <v>0</v>
@@ -43740,19 +43740,19 @@
         <v>0</v>
       </c>
       <c r="LR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LS32">
         <v>0</v>
       </c>
       <c r="LT32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LU32">
         <v>0</v>
       </c>
       <c r="LV32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LW32">
         <v>0</v>
@@ -43776,13 +43776,13 @@
         <v>0</v>
       </c>
       <c r="MD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME32">
         <v>0</v>
       </c>
       <c r="MF32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MG32">
         <v>0</v>
@@ -43806,7 +43806,7 @@
         <v>0</v>
       </c>
       <c r="MN32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MO32">
         <v>0</v>
@@ -43818,100 +43818,100 @@
         <v>0</v>
       </c>
       <c r="MR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MS32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MT32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="MU32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MV32">
         <v>0</v>
       </c>
       <c r="MW32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MX32">
         <v>0</v>
       </c>
       <c r="MY32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="MZ32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="NA32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="NB32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ND32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NE32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="NF32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NG32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="NH32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NI32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="NJ32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NK32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="NL32">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="NM32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="NN32">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="NO32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="NP32">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="NQ32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="NR32">
         <v>0</v>
       </c>
       <c r="NS32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="NT32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="NU32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="NV32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="NW32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="NX32">
         <v>0</v>
@@ -43920,19 +43920,19 @@
         <v>0</v>
       </c>
       <c r="NZ32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OA32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OB32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OC32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OD32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OE32">
         <v>0</v>
@@ -43941,19 +43941,19 @@
         <v>0</v>
       </c>
       <c r="OG32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OH32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OI32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OJ32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OK32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OL32">
         <v>0</v>
@@ -43962,19 +43962,19 @@
         <v>0</v>
       </c>
       <c r="ON32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OO32">
         <v>0</v>
       </c>
       <c r="OP32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OQ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OR32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OS32">
         <v>0</v>
@@ -43989,13 +43989,13 @@
         <v>0</v>
       </c>
       <c r="OW32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OX32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OY32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OZ32">
         <v>0</v>
@@ -44004,19 +44004,19 @@
         <v>0</v>
       </c>
       <c r="PB32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="PC32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PD32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PE32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="PF32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PG32">
         <v>0</v>
@@ -44025,19 +44025,19 @@
         <v>0</v>
       </c>
       <c r="PI32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PK32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PL32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PM32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PN32">
         <v>0</v>
@@ -44046,19 +44046,19 @@
         <v>0</v>
       </c>
       <c r="PP32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="PQ32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="PR32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PS32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU32">
         <v>0</v>
@@ -65692,13 +65692,13 @@
         <v>0</v>
       </c>
       <c r="GH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GI49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK49">
         <v>0</v>
@@ -65710,22 +65710,22 @@
         <v>0</v>
       </c>
       <c r="GN49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GO49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GP49">
         <v>0</v>
       </c>
       <c r="GQ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GR49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GS49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT49">
         <v>0</v>
@@ -65803,7 +65803,7 @@
         <v>0</v>
       </c>
       <c r="HS49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HT49">
         <v>0</v>
@@ -65815,7 +65815,7 @@
         <v>0</v>
       </c>
       <c r="HW49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX49">
         <v>0</v>
@@ -65836,7 +65836,7 @@
         <v>0</v>
       </c>
       <c r="ID49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE49">
         <v>0</v>
@@ -65920,7 +65920,7 @@
         <v>0</v>
       </c>
       <c r="JF49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JG49">
         <v>0</v>
@@ -65938,7 +65938,7 @@
         <v>0</v>
       </c>
       <c r="JL49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM49">
         <v>0</v>
@@ -66109,7 +66109,7 @@
         <v>0</v>
       </c>
       <c r="LQ49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LR49">
         <v>0</v>
@@ -66148,7 +66148,7 @@
         <v>0</v>
       </c>
       <c r="MD49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME49">
         <v>0</v>
@@ -66172,7 +66172,7 @@
         <v>0</v>
       </c>
       <c r="ML49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="MM49">
         <v>0</v>
@@ -66187,7 +66187,7 @@
         <v>0</v>
       </c>
       <c r="MQ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MR49">
         <v>0</v>
@@ -66196,10 +66196,10 @@
         <v>0</v>
       </c>
       <c r="MT49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MU49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MV49">
         <v>0</v>
@@ -66211,16 +66211,16 @@
         <v>0</v>
       </c>
       <c r="MY49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MZ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NA49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NB49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NC49">
         <v>0</v>
@@ -66229,10 +66229,10 @@
         <v>0</v>
       </c>
       <c r="NE49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NF49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NG49">
         <v>0</v>
@@ -66244,7 +66244,7 @@
         <v>0</v>
       </c>
       <c r="NJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK49">
         <v>0</v>
@@ -66259,7 +66259,7 @@
         <v>0</v>
       </c>
       <c r="NO49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NP49">
         <v>0</v>
@@ -66361,7 +66361,7 @@
         <v>0</v>
       </c>
       <c r="OW49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OX49">
         <v>0</v>
@@ -66397,16 +66397,16 @@
         <v>0</v>
       </c>
       <c r="PI49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PJ49">
         <v>0</v>
       </c>
       <c r="PK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PL49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PM49">
         <v>0</v>
@@ -66418,16 +66418,16 @@
         <v>0</v>
       </c>
       <c r="PP49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PQ49">
         <v>0</v>
       </c>
       <c r="PR49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PS49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PT49">
         <v>0</v>
@@ -75659,16 +75659,16 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -75683,10 +75683,10 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -75698,7 +75698,7 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -75749,16 +75749,16 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH57">
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK57">
         <v>0</v>
@@ -75767,64 +75767,64 @@
         <v>0</v>
       </c>
       <c r="AM57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN57">
         <v>0</v>
       </c>
       <c r="AO57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT57">
         <v>0</v>
       </c>
       <c r="AU57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW57">
         <v>0</v>
       </c>
       <c r="AX57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY57">
         <v>0</v>
       </c>
       <c r="AZ57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC57">
         <v>0</v>
       </c>
       <c r="BD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG57">
         <v>0</v>
@@ -75839,7 +75839,7 @@
         <v>0</v>
       </c>
       <c r="BK57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL57">
         <v>0</v>
@@ -75848,7 +75848,7 @@
         <v>0</v>
       </c>
       <c r="BN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO57">
         <v>0</v>
@@ -75857,13 +75857,13 @@
         <v>0</v>
       </c>
       <c r="BQ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT57">
         <v>0</v>
@@ -75881,16 +75881,16 @@
         <v>0</v>
       </c>
       <c r="BY57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ57">
         <v>0</v>
       </c>
       <c r="CA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC57">
         <v>0</v>
@@ -75899,7 +75899,7 @@
         <v>0</v>
       </c>
       <c r="CE57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF57">
         <v>0</v>
@@ -75908,7 +75908,7 @@
         <v>0</v>
       </c>
       <c r="CH57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI57">
         <v>0</v>
@@ -75917,16 +75917,16 @@
         <v>0</v>
       </c>
       <c r="CK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM57">
         <v>0</v>
       </c>
       <c r="CN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO57">
         <v>0</v>
@@ -75947,13 +75947,13 @@
         <v>0</v>
       </c>
       <c r="CU57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV57">
         <v>0</v>
       </c>
       <c r="CW57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX57">
         <v>0</v>
@@ -75962,13 +75962,13 @@
         <v>0</v>
       </c>
       <c r="CZ57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DA57">
         <v>0</v>
       </c>
       <c r="DB57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DC57">
         <v>0</v>
@@ -75980,13 +75980,13 @@
         <v>0</v>
       </c>
       <c r="DF57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DH57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DI57">
         <v>0</v>
@@ -75995,7 +75995,7 @@
         <v>0</v>
       </c>
       <c r="DK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL57">
         <v>0</v>
@@ -76010,7 +76010,7 @@
         <v>0</v>
       </c>
       <c r="DP57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ57">
         <v>0</v>
@@ -76046,7 +76046,7 @@
         <v>0</v>
       </c>
       <c r="EB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC57">
         <v>0</v>
@@ -76085,10 +76085,10 @@
         <v>0</v>
       </c>
       <c r="EO57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EP57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ57">
         <v>0</v>
@@ -76112,7 +76112,7 @@
         <v>0</v>
       </c>
       <c r="EX57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EY57">
         <v>0</v>
@@ -76130,7 +76130,7 @@
         <v>0</v>
       </c>
       <c r="FD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FE57">
         <v>0</v>
@@ -76139,7 +76139,7 @@
         <v>0</v>
       </c>
       <c r="FG57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FH57">
         <v>0</v>
@@ -76148,10 +76148,10 @@
         <v>0</v>
       </c>
       <c r="FJ57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL57">
         <v>0</v>
@@ -76160,10 +76160,10 @@
         <v>0</v>
       </c>
       <c r="FN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FP57">
         <v>0</v>
@@ -76172,163 +76172,163 @@
         <v>0</v>
       </c>
       <c r="FR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS57">
         <v>0</v>
       </c>
       <c r="FT57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FV57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FX57">
         <v>0</v>
       </c>
       <c r="FY57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ57">
         <v>0</v>
       </c>
       <c r="GA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GC57">
         <v>0</v>
       </c>
       <c r="GD57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GE57">
         <v>0</v>
       </c>
       <c r="GF57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GI57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GJ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GK57">
         <v>0</v>
       </c>
       <c r="GL57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GM57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GP57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GQ57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GR57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GS57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GT57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GU57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GV57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="GX57">
         <v>0</v>
       </c>
       <c r="GY57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GZ57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="HA57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="HB57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="HC57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="HD57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="HE57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HF57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HG57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HH57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HI57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HJ57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HK57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HL57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HM57">
         <v>0</v>
       </c>
       <c r="HN57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HO57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="HP57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HQ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HS57">
         <v>0</v>
@@ -76340,13 +76340,13 @@
         <v>0</v>
       </c>
       <c r="HV57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW57">
         <v>0</v>
       </c>
       <c r="HX57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY57">
         <v>0</v>
@@ -76355,7 +76355,7 @@
         <v>0</v>
       </c>
       <c r="IA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB57">
         <v>0</v>
@@ -76370,7 +76370,7 @@
         <v>0</v>
       </c>
       <c r="IF57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG57">
         <v>0</v>
@@ -76379,7 +76379,7 @@
         <v>0</v>
       </c>
       <c r="II57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ57">
         <v>0</v>
@@ -76391,7 +76391,7 @@
         <v>0</v>
       </c>
       <c r="IM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN57">
         <v>0</v>
@@ -76406,7 +76406,7 @@
         <v>0</v>
       </c>
       <c r="IR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IS57">
         <v>0</v>
@@ -76421,7 +76421,7 @@
         <v>0</v>
       </c>
       <c r="IW57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IX57">
         <v>0</v>
@@ -76439,10 +76439,10 @@
         <v>0</v>
       </c>
       <c r="JC57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JD57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JE57">
         <v>0</v>
@@ -76451,7 +76451,7 @@
         <v>0</v>
       </c>
       <c r="JG57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JH57">
         <v>0</v>
@@ -76466,7 +76466,7 @@
         <v>0</v>
       </c>
       <c r="JL57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JM57">
         <v>0</v>
@@ -76484,13 +76484,13 @@
         <v>0</v>
       </c>
       <c r="JR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JS57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JU57">
         <v>0</v>
@@ -76502,7 +76502,7 @@
         <v>0</v>
       </c>
       <c r="JX57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY57">
         <v>0</v>
@@ -76520,7 +76520,7 @@
         <v>0</v>
       </c>
       <c r="KD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KE57">
         <v>0</v>
@@ -76532,7 +76532,7 @@
         <v>0</v>
       </c>
       <c r="KH57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KI57">
         <v>0</v>
@@ -76574,7 +76574,7 @@
         <v>0</v>
       </c>
       <c r="KV57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KW57">
         <v>0</v>
@@ -76598,7 +76598,7 @@
         <v>0</v>
       </c>
       <c r="LD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE57">
         <v>0</v>
@@ -76607,28 +76607,28 @@
         <v>0</v>
       </c>
       <c r="LG57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LH57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LI57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LJ57">
         <v>0</v>
       </c>
       <c r="LK57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LL57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LM57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LO57">
         <v>0</v>
@@ -76637,10 +76637,10 @@
         <v>0</v>
       </c>
       <c r="LQ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LR57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LS57">
         <v>0</v>
@@ -76652,19 +76652,19 @@
         <v>0</v>
       </c>
       <c r="LV57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LW57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LX57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LY57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LZ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MA57">
         <v>0</v>
@@ -76676,295 +76676,295 @@
         <v>0</v>
       </c>
       <c r="MD57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ME57">
         <v>0</v>
       </c>
       <c r="MF57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MG57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MH57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MI57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MJ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MK57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="ML57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MM57">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="MN57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="MO57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="MP57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="MQ57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="MR57">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="MS57">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="MT57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="MU57">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="MV57">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="MW57">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="MX57">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="MY57">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="MZ57">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="NA57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="NB57">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="NC57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="ND57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="NE57">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="NF57">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="NG57">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="NH57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="NI57">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="NJ57">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="NK57">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="NL57">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="NM57">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="NN57">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="NO57">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="NP57">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="NQ57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="NR57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NS57">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="NT57">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="NU57">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="NV57">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="NW57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="NX57">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="NY57">
         <v>0</v>
       </c>
       <c r="NZ57">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="OA57">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="OB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OC57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OD57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OE57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OF57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OG57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OH57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OI57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OJ57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OK57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="OL57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OM57">
         <v>0</v>
       </c>
       <c r="ON57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OO57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OP57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OQ57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OR57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OS57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OT57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OU57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OV57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OW57">
         <v>0</v>
       </c>
       <c r="OX57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OY57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OZ57">
         <v>0</v>
       </c>
       <c r="PA57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PB57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="PC57">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="PD57">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="PE57">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="PF57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="PG57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PH57">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="PI57">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="PJ57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PK57">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="PL57">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="PM57">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="PN57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PO57">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="PP57">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="PQ57">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="PR57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="PS57">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="PT57">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="PU57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="PV57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:438">
@@ -76972,28 +76972,28 @@
         <v>494</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -77008,43 +77008,43 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58">
         <v>0</v>
@@ -77083,10 +77083,10 @@
         <v>0</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO58">
         <v>0</v>
@@ -77098,7 +77098,7 @@
         <v>0</v>
       </c>
       <c r="AR58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS58">
         <v>0</v>
@@ -77113,97 +77113,97 @@
         <v>0</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX58">
         <v>0</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB58">
         <v>0</v>
       </c>
       <c r="BC58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF58">
         <v>0</v>
       </c>
       <c r="BG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BM58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BP58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BQ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BT58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX58">
         <v>0</v>
       </c>
       <c r="BY58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB58">
         <v>0</v>
@@ -77212,16 +77212,16 @@
         <v>0</v>
       </c>
       <c r="CD58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CF58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH58">
         <v>0</v>
@@ -77236,16 +77236,16 @@
         <v>0</v>
       </c>
       <c r="CL58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM58">
         <v>0</v>
       </c>
       <c r="CN58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP58">
         <v>0</v>
@@ -77257,34 +77257,34 @@
         <v>0</v>
       </c>
       <c r="CS58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CX58">
         <v>0</v>
       </c>
       <c r="CY58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DC58">
         <v>0</v>
@@ -77293,61 +77293,61 @@
         <v>0</v>
       </c>
       <c r="DE58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF58">
         <v>0</v>
       </c>
       <c r="DG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DI58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DL58">
         <v>0</v>
       </c>
       <c r="DM58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DN58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DO58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DQ58">
         <v>0</v>
       </c>
       <c r="DR58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT58">
         <v>0</v>
       </c>
       <c r="DU58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DV58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DW58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DX58">
         <v>0</v>
@@ -77362,28 +77362,28 @@
         <v>0</v>
       </c>
       <c r="EB58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EC58">
         <v>0</v>
       </c>
       <c r="ED58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE58">
         <v>0</v>
       </c>
       <c r="EF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG58">
         <v>0</v>
       </c>
       <c r="EH58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EJ58">
         <v>0</v>
@@ -77392,7 +77392,7 @@
         <v>0</v>
       </c>
       <c r="EL58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EM58">
         <v>0</v>
@@ -77416,13 +77416,13 @@
         <v>0</v>
       </c>
       <c r="ET58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU58">
         <v>0</v>
       </c>
       <c r="EV58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EW58">
         <v>0</v>
@@ -77431,19 +77431,19 @@
         <v>0</v>
       </c>
       <c r="EY58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EZ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA58">
         <v>0</v>
       </c>
       <c r="FB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FD58">
         <v>0</v>
@@ -77452,25 +77452,25 @@
         <v>0</v>
       </c>
       <c r="FF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FH58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FI58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FJ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FK58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FL58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FM58">
         <v>0</v>
@@ -77479,28 +77479,28 @@
         <v>0</v>
       </c>
       <c r="FO58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FQ58">
         <v>0</v>
       </c>
       <c r="FR58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FS58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FT58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU58">
         <v>0</v>
       </c>
       <c r="FV58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW58">
         <v>0</v>
@@ -77509,151 +77509,151 @@
         <v>0</v>
       </c>
       <c r="FY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FZ58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GC58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GE58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GF58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="GG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GI58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GJ58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GK58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GL58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GM58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="GN58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GO58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GP58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="GQ58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="GR58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="GS58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GT58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="GU58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="GV58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GW58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="GX58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GY58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="GZ58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="HA58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="HB58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="HC58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="HD58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="HE58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="HF58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="HH58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HI58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="HJ58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="HK58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="HL58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="HM58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HN58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="HO58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="HP58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HQ58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HR58">
         <v>0</v>
       </c>
       <c r="HS58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HT58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV58">
         <v>0</v>
@@ -77662,22 +77662,22 @@
         <v>0</v>
       </c>
       <c r="HX58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="HZ58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IA58">
         <v>0</v>
       </c>
       <c r="IB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ID58">
         <v>0</v>
@@ -77686,7 +77686,7 @@
         <v>0</v>
       </c>
       <c r="IF58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IG58">
         <v>0</v>
@@ -77698,7 +77698,7 @@
         <v>0</v>
       </c>
       <c r="IJ58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IK58">
         <v>0</v>
@@ -77707,13 +77707,13 @@
         <v>0</v>
       </c>
       <c r="IM58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IN58">
         <v>0</v>
       </c>
       <c r="IO58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP58">
         <v>0</v>
@@ -77731,7 +77731,7 @@
         <v>0</v>
       </c>
       <c r="IU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IV58">
         <v>0</v>
@@ -77743,13 +77743,13 @@
         <v>0</v>
       </c>
       <c r="IY58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IZ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JA58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JB58">
         <v>0</v>
@@ -77761,7 +77761,7 @@
         <v>0</v>
       </c>
       <c r="JE58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JF58">
         <v>0</v>
@@ -77785,10 +77785,10 @@
         <v>0</v>
       </c>
       <c r="JM58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JN58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JO58">
         <v>0</v>
@@ -77800,10 +77800,10 @@
         <v>0</v>
       </c>
       <c r="JR58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JS58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JT58">
         <v>0</v>
@@ -77812,16 +77812,16 @@
         <v>0</v>
       </c>
       <c r="JV58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JW58">
         <v>0</v>
       </c>
       <c r="JX58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JZ58">
         <v>0</v>
@@ -77854,7 +77854,7 @@
         <v>0</v>
       </c>
       <c r="KJ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KK58">
         <v>0</v>
@@ -77866,28 +77866,28 @@
         <v>0</v>
       </c>
       <c r="KN58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KO58">
         <v>0</v>
       </c>
       <c r="KP58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KQ58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KR58">
         <v>0</v>
       </c>
       <c r="KS58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KT58">
         <v>0</v>
       </c>
       <c r="KU58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KV58">
         <v>0</v>
@@ -77902,31 +77902,31 @@
         <v>0</v>
       </c>
       <c r="KZ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LA58">
         <v>0</v>
       </c>
       <c r="LB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LC58">
         <v>0</v>
       </c>
       <c r="LD58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LE58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LF58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LG58">
         <v>0</v>
       </c>
       <c r="LH58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LI58">
         <v>0</v>
@@ -77935,7 +77935,7 @@
         <v>0</v>
       </c>
       <c r="LK58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LL58">
         <v>0</v>
@@ -77944,343 +77944,343 @@
         <v>0</v>
       </c>
       <c r="LN58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LO58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="LP58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="LQ58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LR58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LS58">
         <v>0</v>
       </c>
       <c r="LT58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LU58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="LV58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LW58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LX58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="LY58">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="LZ58">
         <v>0</v>
       </c>
       <c r="MA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MB58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MC58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="MD58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ME58">
         <v>0</v>
       </c>
       <c r="MF58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="MG58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MH58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MI58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="MJ58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="MK58">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="ML58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="MM58">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="MN58">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="MO58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="MP58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="MQ58">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="MR58">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="MS58">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="MT58">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="MU58">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="MV58">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="MW58">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="MX58">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="MY58">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="MZ58">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="NA58">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="NB58">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="NC58">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="ND58">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="NE58">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="NF58">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="NG58">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="NH58">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="NI58">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="NJ58">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="NK58">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="NL58">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="NM58">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="NN58">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="NO58">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="NP58">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="NQ58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="NR58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="NS58">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="NT58">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="NU58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="NV58">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="NW58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="NX58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="NY58">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="NZ58">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="OA58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="OB58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="OC58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="OD58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="OE58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OF58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OG58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="OH58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="OI58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OJ58">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="OK58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OL58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OM58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="ON58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OO58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OP58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OQ58">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="OR58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OS58">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="OT58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OU58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OV58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OW58">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="OX58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OY58">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="OZ58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="PA58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="PB58">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="PC58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="PD58">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="PE58">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="PF58">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="PG58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="PH58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="PI58">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="PJ58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="PK58">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="PL58">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="PM58">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="PN58">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="PO58">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="PP58">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="PQ58">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="PR58">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="PS58">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="PT58">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="PU58">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="PV58">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:438">
@@ -83552,1315 +83552,1315 @@
         <v>499</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AP63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AW63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BA63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BC63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BD63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BE63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BF63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BG63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BH63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BI63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BJ63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BK63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BL63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BM63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BN63">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BO63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BP63">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="BQ63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BR63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BS63">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BT63">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BU63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BV63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BW63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BX63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BY63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BZ63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CA63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="CB63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CC63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CD63">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CE63">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="CF63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CG63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CH63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CI63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CJ63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CL63">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CM63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="CN63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CO63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CP63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CQ63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CR63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CS63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CT63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CU63">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="CV63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CW63">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="CX63">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="CY63">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="CZ63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="DA63">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="DB63">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="DC63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DD63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DE63">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="DF63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DG63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DH63">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="DI63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="DJ63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="DK63">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="DL63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DM63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DN63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="DO63">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="DP63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DQ63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="DR63">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="DS63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DT63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="DU63">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="DV63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="DW63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DX63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="DY63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DZ63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="EA63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="EB63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="EC63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="ED63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="EE63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="EF63">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="EG63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="EH63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EI63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EJ63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="EK63">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="EL63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="EM63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="EN63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="EO63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="EP63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EQ63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="ER63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="ES63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="ET63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EU63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="EV63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="EW63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="EX63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="EY63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="EZ63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FA63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FB63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="FC63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="FD63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="FE63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="FF63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="FG63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FH63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="FI63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="FJ63">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="FK63">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="FL63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="FM63">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="FN63">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="FO63">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="FP63">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="FQ63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FR63">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="FS63">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FT63">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FU63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="FV63">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="FW63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="FX63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="FY63">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="FZ63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="GA63">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="GB63">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="GC63">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="GD63">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="GE63">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="GF63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="GG63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="GH63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="GI63">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="GJ63">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="GK63">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="GL63">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="GM63">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="GN63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="GO63">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="GP63">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="GQ63">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="GR63">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="GS63">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="GT63">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="GU63">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="GV63">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="GW63">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="GX63">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="GY63">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="GZ63">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HA63">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="HB63">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="HC63">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="HD63">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="HE63">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="HF63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="HG63">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="HH63">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="HI63">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="HJ63">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="HK63">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="HL63">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="HM63">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="HN63">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="HO63">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="HP63">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="HQ63">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="HR63">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="HS63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="HT63">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="HU63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="HV63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="HW63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="HX63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="HY63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="HZ63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="IA63">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="IB63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="IC63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="ID63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="IE63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="IF63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="IG63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="IH63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="II63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="IJ63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="IK63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="IL63">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="IM63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="IN63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IO63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="IP63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="IQ63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="IR63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="IS63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="IT63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="IU63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="IV63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="IW63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="IX63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="IY63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="IZ63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JA63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="JB63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JC63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JD63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JE63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="JF63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="JG63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JH63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="JI63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="JJ63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JK63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JL63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JM63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="JN63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="JO63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="JP63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JQ63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JR63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="JS63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="JT63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="JU63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="JV63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="JW63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="JX63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JY63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JZ63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KA63">
         <v>0</v>
       </c>
       <c r="KB63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="KC63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KD63">
         <v>0</v>
       </c>
       <c r="KE63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="KF63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KG63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="KH63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="KI63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KJ63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KK63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KL63">
         <v>0</v>
       </c>
       <c r="KM63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="KN63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="KO63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="KP63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="KQ63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="KR63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="KS63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="KT63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KU63">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="KV63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="KW63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="KX63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="KY63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="KZ63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="LA63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="LB63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="LC63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="LD63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="LE63">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="LF63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="LG63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="LH63">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="LI63">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="LJ63">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="LK63">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="LL63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="LM63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="LN63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="LO63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="LP63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="LQ63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="LR63">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="LS63">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="LT63">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="LU63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="LV63">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="LW63">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="LX63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="LY63">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="LZ63">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="MA63">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="MB63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="MC63">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="MD63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="ME63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="MF63">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="MG63">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="MH63">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="MI63">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="MJ63">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="MK63">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="ML63">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="MM63">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="MN63">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="MO63">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="MP63">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="MQ63">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="MR63">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="MS63">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="MT63">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="MU63">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="MV63">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="MW63">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="MX63">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="MY63">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="MZ63">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="NA63">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="NB63">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="NC63">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="ND63">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="NE63">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="NF63">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="NG63">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="NH63">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="NI63">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="NJ63">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="NK63">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="NL63">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="NM63">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="NN63">
-        <v>0</v>
+        <v>557</v>
       </c>
       <c r="NO63">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="NP63">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="NQ63">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="NR63">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="NS63">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="NT63">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="NU63">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="NV63">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="NW63">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="NX63">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="NY63">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="NZ63">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="OA63">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="OB63">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="OC63">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="OD63">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="OE63">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="OF63">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="OG63">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="OH63">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="OI63">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="OJ63">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="OK63">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="OL63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="OM63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="ON63">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="OO63">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="OP63">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="OQ63">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="OR63">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="OS63">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="OT63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="OU63">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="OV63">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="OW63">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="OX63">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="OY63">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="OZ63">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="PA63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="PB63">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="PC63">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="PD63">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="PE63">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="PF63">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="PG63">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="PH63">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="PI63">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="PJ63">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="PK63">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="PL63">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="PM63">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="PN63">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="PO63">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="PP63">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="PQ63">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="PR63">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="PS63">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="PT63">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="PU63">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="PV63">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:438">
@@ -91508,10 +91508,10 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -91550,7 +91550,7 @@
         <v>0</v>
       </c>
       <c r="AJ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK69">
         <v>0</v>
@@ -91568,7 +91568,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>0</v>
@@ -91580,10 +91580,10 @@
         <v>0</v>
       </c>
       <c r="AT69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV69">
         <v>0</v>
@@ -91592,7 +91592,7 @@
         <v>0</v>
       </c>
       <c r="AX69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY69">
         <v>0</v>
@@ -91613,7 +91613,7 @@
         <v>0</v>
       </c>
       <c r="BE69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF69">
         <v>0</v>
@@ -91736,7 +91736,7 @@
         <v>0</v>
       </c>
       <c r="CT69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU69">
         <v>0</v>
@@ -91763,7 +91763,7 @@
         <v>0</v>
       </c>
       <c r="DC69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD69">
         <v>0</v>
@@ -91778,13 +91778,13 @@
         <v>0</v>
       </c>
       <c r="DH69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI69">
         <v>0</v>
       </c>
       <c r="DJ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK69">
         <v>0</v>
@@ -91838,13 +91838,13 @@
         <v>0</v>
       </c>
       <c r="EB69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC69">
         <v>0</v>
       </c>
       <c r="ED69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE69">
         <v>0</v>
@@ -91928,7 +91928,7 @@
         <v>0</v>
       </c>
       <c r="FF69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FG69">
         <v>0</v>
@@ -91961,7 +91961,7 @@
         <v>0</v>
       </c>
       <c r="FQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FR69">
         <v>0</v>
@@ -92009,7 +92009,7 @@
         <v>0</v>
       </c>
       <c r="GG69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GH69">
         <v>0</v>
@@ -92033,7 +92033,7 @@
         <v>0</v>
       </c>
       <c r="GO69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP69">
         <v>0</v>
@@ -92057,7 +92057,7 @@
         <v>0</v>
       </c>
       <c r="GW69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GX69">
         <v>0</v>
@@ -92066,19 +92066,19 @@
         <v>0</v>
       </c>
       <c r="GZ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HB69">
         <v>0</v>
       </c>
       <c r="HC69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HD69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HE69">
         <v>0</v>
@@ -92087,13 +92087,13 @@
         <v>0</v>
       </c>
       <c r="HG69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HH69">
         <v>0</v>
       </c>
       <c r="HI69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HJ69">
         <v>0</v>
@@ -92117,7 +92117,7 @@
         <v>0</v>
       </c>
       <c r="HQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HR69">
         <v>0</v>
@@ -92135,7 +92135,7 @@
         <v>0</v>
       </c>
       <c r="HW69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX69">
         <v>0</v>
@@ -92204,7 +92204,7 @@
         <v>0</v>
       </c>
       <c r="IT69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IU69">
         <v>0</v>
@@ -92225,7 +92225,7 @@
         <v>0</v>
       </c>
       <c r="JA69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JB69">
         <v>0</v>
@@ -92261,7 +92261,7 @@
         <v>0</v>
       </c>
       <c r="JM69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="JN69">
         <v>0</v>
@@ -92372,7 +92372,7 @@
         <v>0</v>
       </c>
       <c r="KX69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KY69">
         <v>0</v>
@@ -92492,52 +92492,52 @@
         <v>0</v>
       </c>
       <c r="ML69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MM69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MN69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="MO69">
         <v>0</v>
       </c>
       <c r="MP69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MQ69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MR69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="MS69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="MT69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="MU69">
         <v>0</v>
       </c>
       <c r="MV69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MW69">
         <v>0</v>
       </c>
       <c r="MX69">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="MY69">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="MZ69">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="NA69">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="NB69">
         <v>0</v>
@@ -92549,61 +92549,61 @@
         <v>0</v>
       </c>
       <c r="NE69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="NF69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="NG69">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="NH69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NI69">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="NJ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NL69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="NM69">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="NN69">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="NO69">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="NP69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="NQ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NR69">
         <v>0</v>
       </c>
       <c r="NS69">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="NT69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="NU69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV69">
         <v>0</v>
       </c>
       <c r="NW69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NX69">
         <v>0</v>
@@ -92612,7 +92612,7 @@
         <v>0</v>
       </c>
       <c r="NZ69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OA69">
         <v>0</v>
@@ -92621,10 +92621,10 @@
         <v>0</v>
       </c>
       <c r="OC69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OD69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OE69">
         <v>0</v>
@@ -92636,7 +92636,7 @@
         <v>0</v>
       </c>
       <c r="OH69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OI69">
         <v>0</v>
@@ -92654,19 +92654,19 @@
         <v>0</v>
       </c>
       <c r="ON69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OO69">
         <v>0</v>
       </c>
       <c r="OP69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OQ69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OR69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OS69">
         <v>0</v>
@@ -92681,13 +92681,13 @@
         <v>0</v>
       </c>
       <c r="OW69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OX69">
         <v>0</v>
       </c>
       <c r="OY69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OZ69">
         <v>0</v>
@@ -92699,16 +92699,16 @@
         <v>0</v>
       </c>
       <c r="PC69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PD69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="PE69">
         <v>0</v>
       </c>
       <c r="PF69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PG69">
         <v>0</v>
@@ -92723,13 +92723,13 @@
         <v>0</v>
       </c>
       <c r="PK69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PL69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PM69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PN69">
         <v>0</v>
@@ -92738,19 +92738,19 @@
         <v>0</v>
       </c>
       <c r="PP69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PQ69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PR69">
         <v>0</v>
       </c>
       <c r="PS69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PT69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PU69">
         <v>0</v>
@@ -115211,7 +115211,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -115301,7 +115301,7 @@
         <v>0</v>
       </c>
       <c r="BE87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF87">
         <v>0</v>
@@ -115364,7 +115364,7 @@
         <v>0</v>
       </c>
       <c r="BZ87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA87">
         <v>0</v>
@@ -115382,7 +115382,7 @@
         <v>0</v>
       </c>
       <c r="CF87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG87">
         <v>0</v>
@@ -115430,7 +115430,7 @@
         <v>0</v>
       </c>
       <c r="CV87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW87">
         <v>0</v>
@@ -115550,7 +115550,7 @@
         <v>0</v>
       </c>
       <c r="EJ87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK87">
         <v>0</v>
@@ -115577,7 +115577,7 @@
         <v>0</v>
       </c>
       <c r="ES87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ET87">
         <v>0</v>
@@ -115586,10 +115586,10 @@
         <v>0</v>
       </c>
       <c r="EV87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EW87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EX87">
         <v>0</v>
@@ -115649,19 +115649,19 @@
         <v>0</v>
       </c>
       <c r="FQ87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FR87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FS87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT87">
         <v>0</v>
       </c>
       <c r="FU87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV87">
         <v>0</v>
@@ -115694,7 +115694,7 @@
         <v>0</v>
       </c>
       <c r="GF87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GG87">
         <v>0</v>
@@ -115703,7 +115703,7 @@
         <v>0</v>
       </c>
       <c r="GI87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GJ87">
         <v>0</v>
@@ -115712,16 +115712,16 @@
         <v>0</v>
       </c>
       <c r="GL87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GM87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GN87">
         <v>0</v>
       </c>
       <c r="GO87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP87">
         <v>0</v>
@@ -115739,10 +115739,10 @@
         <v>0</v>
       </c>
       <c r="GU87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GW87">
         <v>0</v>
@@ -115760,16 +115760,16 @@
         <v>0</v>
       </c>
       <c r="HB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HD87">
         <v>0</v>
       </c>
       <c r="HE87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HF87">
         <v>0</v>
@@ -115820,16 +115820,16 @@
         <v>0</v>
       </c>
       <c r="HV87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW87">
         <v>0</v>
       </c>
       <c r="HX87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ87">
         <v>0</v>
@@ -116033,7 +116033,7 @@
         <v>0</v>
       </c>
       <c r="KO87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="KP87">
         <v>0</v>
@@ -116195,13 +116195,13 @@
         <v>0</v>
       </c>
       <c r="MQ87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MR87">
         <v>0</v>
       </c>
       <c r="MS87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MT87">
         <v>0</v>
@@ -116216,19 +116216,19 @@
         <v>0</v>
       </c>
       <c r="MX87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MZ87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NA87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NC87">
         <v>0</v>
@@ -116237,19 +116237,19 @@
         <v>0</v>
       </c>
       <c r="NE87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NF87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="NG87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NH87">
         <v>0</v>
       </c>
       <c r="NI87">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="NJ87">
         <v>0</v>
@@ -116258,19 +116258,19 @@
         <v>0</v>
       </c>
       <c r="NL87">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="NM87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NN87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NO87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NP87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NQ87">
         <v>0</v>
@@ -116279,16 +116279,16 @@
         <v>0</v>
       </c>
       <c r="NS87">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="NT87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NU87">
         <v>0</v>
       </c>
       <c r="NV87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW87">
         <v>0</v>
@@ -116303,10 +116303,10 @@
         <v>0</v>
       </c>
       <c r="OA87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OB87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OC87">
         <v>0</v>
@@ -116348,7 +116348,7 @@
         <v>0</v>
       </c>
       <c r="OP87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OQ87">
         <v>0</v>
@@ -116363,7 +116363,7 @@
         <v>0</v>
       </c>
       <c r="OU87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OV87">
         <v>0</v>
@@ -116384,13 +116384,13 @@
         <v>0</v>
       </c>
       <c r="PB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PC87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PD87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PE87">
         <v>0</v>
@@ -116405,7 +116405,7 @@
         <v>0</v>
       </c>
       <c r="PI87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PJ87">
         <v>0</v>
@@ -116438,7 +116438,7 @@
         <v>0</v>
       </c>
       <c r="PT87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PU87">
         <v>0</v>
@@ -117789,7 +117789,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -117813,7 +117813,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -118314,7 +118314,7 @@
         <v>0</v>
       </c>
       <c r="GB89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GC89">
         <v>0</v>
@@ -118335,7 +118335,7 @@
         <v>0</v>
       </c>
       <c r="GI89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GJ89">
         <v>0</v>
@@ -118353,13 +118353,13 @@
         <v>0</v>
       </c>
       <c r="GO89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP89">
         <v>0</v>
       </c>
       <c r="GQ89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GR89">
         <v>0</v>
@@ -118371,7 +118371,7 @@
         <v>0</v>
       </c>
       <c r="GU89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GV89">
         <v>0</v>
@@ -118446,7 +118446,7 @@
         <v>0</v>
       </c>
       <c r="HT89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU89">
         <v>0</v>
@@ -118815,7 +118815,7 @@
         <v>0</v>
       </c>
       <c r="MM89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MN89">
         <v>0</v>
@@ -118830,7 +118830,7 @@
         <v>0</v>
       </c>
       <c r="MR89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MS89">
         <v>0</v>
@@ -118848,31 +118848,31 @@
         <v>0</v>
       </c>
       <c r="MX89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="MY89">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="MZ89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NA89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NB89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NC89">
         <v>0</v>
       </c>
       <c r="ND89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NE89">
         <v>0</v>
       </c>
       <c r="NF89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NG89">
         <v>0</v>
@@ -118881,100 +118881,100 @@
         <v>0</v>
       </c>
       <c r="NI89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NJ89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NK89">
         <v>0</v>
       </c>
       <c r="NL89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NM89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="NN89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NO89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NP89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NQ89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NR89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NS89">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="NT89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="NU89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NV89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NW89">
         <v>0</v>
       </c>
       <c r="NX89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="NY89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="NZ89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OA89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OB89">
         <v>0</v>
       </c>
       <c r="OC89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="OD89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OE89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OF89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OG89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OH89">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="OI89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OJ89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="OK89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OL89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OM89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ON89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="OO89">
         <v>0</v>
@@ -119001,7 +119001,7 @@
         <v>0</v>
       </c>
       <c r="OW89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OX89">
         <v>0</v>
@@ -119010,7 +119010,7 @@
         <v>0</v>
       </c>
       <c r="OZ89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PA89">
         <v>0</v>
@@ -119019,16 +119019,16 @@
         <v>0</v>
       </c>
       <c r="PC89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PD89">
         <v>0</v>
       </c>
       <c r="PE89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PF89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PG89">
         <v>0</v>
@@ -119040,37 +119040,37 @@
         <v>0</v>
       </c>
       <c r="PJ89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PK89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="PL89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PM89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PN89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PO89">
         <v>0</v>
       </c>
       <c r="PP89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PQ89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PR89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="PS89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="PT89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="PU89">
         <v>0</v>
